--- a/Vera/1.2.1.1_értékelés_nem bejelentkezett.xlsx
+++ b/Vera/1.2.1.1_értékelés_nem bejelentkezett.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\webshop\Vera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Training\Andi\Webshop\webshop\Vera\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Nem bejelentkezett" sheetId="2" r:id="rId1"/>
@@ -357,7 +357,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>...</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>1.2.1.1</t>
+  </si>
+  <si>
+    <t>Csongrádiné Szenzenstein Andrea</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>KÖZEPES</t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -704,30 +713,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,46 +1054,46 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="49" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="1"/>
+    <col min="7" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
@@ -1092,9 +1104,11 @@
       <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="30">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
@@ -1105,20 +1119,26 @@
       <c r="E5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="22"/>
       <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1147,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
@@ -1138,31 +1158,31 @@
       <c r="E8" s="9"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="28">
         <v>43563</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="13"/>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -1193,10 +1213,12 @@
         <v>26</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1207,10 +1229,12 @@
         <v>27</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -1220,7 +1244,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>4</v>
       </c>
@@ -1230,7 +1254,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>5</v>
       </c>
@@ -1240,7 +1264,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -1250,7 +1274,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>7</v>
       </c>
@@ -1260,7 +1284,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>8</v>
       </c>
@@ -1270,7 +1294,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>9</v>
       </c>
@@ -1280,7 +1304,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>10</v>
       </c>
@@ -1290,7 +1314,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
@@ -1302,17 +1326,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
